--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
@@ -7,8 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +427,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3829</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Hamish Kyle Bennett</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Left Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Medium Fast</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +516,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +568,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +620,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -652,7 +716,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3223</t>
+          <t>3223</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -704,7 +768,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -752,7 +816,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -804,7 +868,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -852,7 +916,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -900,7 +964,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3236</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -952,7 +1016,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3242</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1000,7 +1064,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3252</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1052,7 +1116,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1104,7 +1168,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1216,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1200,7 +1264,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1248,7 +1312,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1296,7 +1360,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1344,7 +1408,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1392,7 +1456,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1431,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1453,7 +1517,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1490,7 +1554,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3188</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -1527,7 +1591,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3190</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1564,7 +1628,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3220</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1601,7 +1665,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3225</t>
+          <t>3225</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1638,7 +1702,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3228</t>
+          <t>3228</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1675,7 +1739,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3230</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1712,7 +1776,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3232</t>
+          <t>3232</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1749,7 +1813,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3236</t>
+          <t>3236</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1786,7 +1850,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3242</t>
+          <t>3242</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1823,7 +1887,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3252</t>
+          <t>3252</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1860,7 +1924,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3272</t>
+          <t>3272</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1897,7 +1961,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3607</t>
+          <t>3607</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1934,7 +1998,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3609</t>
+          <t>3609</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1971,7 +2035,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4024</t>
+          <t>4024</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2008,7 +2072,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4027</t>
+          <t>4027</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2045,7 +2109,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4402</t>
+          <t>4402</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2082,7 +2146,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4406</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2119,7 +2183,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4410</t>
+          <t>4410</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">

--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>22/01/2011</t>
@@ -708,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -721,7 +720,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -808,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/02/2011</t>
@@ -908,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>05/02/2011</t>
@@ -956,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>20/02/2011</t>
@@ -1056,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -1208,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -1256,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>17/05/2017</t>
@@ -1304,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -1352,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -1400,7 +1391,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/02/2020</t>
@@ -1448,7 +1438,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -2215,4 +2204,341 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3190</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3223</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3225</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3228</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3230</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3232</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3236</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3252</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3272</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,6 +660,7 @@
           <t>3</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>22/01/2011</t>
@@ -708,6 +708,7 @@
           <t>4</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -807,6 +808,7 @@
           <t>6</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/02/2011</t>
@@ -906,6 +908,7 @@
           <t>8</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>05/02/2011</t>
@@ -953,6 +956,7 @@
           <t>9</t>
         </is>
       </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>20/02/2011</t>
@@ -1052,6 +1056,7 @@
           <t>11</t>
         </is>
       </c>
+      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -1203,6 +1208,7 @@
           <t>14</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -1250,6 +1256,7 @@
           <t>15</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>17/05/2017</t>
@@ -1297,6 +1304,7 @@
           <t>16</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -1344,6 +1352,7 @@
           <t>17</t>
         </is>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -1391,6 +1400,7 @@
           <t>18</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/02/2020</t>
@@ -1438,6 +1448,7 @@
           <t>19</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -2204,341 +2215,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3188</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3190</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3220</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>11</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3223</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>11</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>3225</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>11</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.96%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>3228</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>3230</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3232</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>3236</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3242</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>3252</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>3272</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>3607</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>3609</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4024</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4027</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4402</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4406</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4410</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
+++ b/bin/sheets/main_db/teams/NZL/PlayerPerformance_3829.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -660,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>22/01/2011</t>
@@ -708,7 +708,6 @@
           <t>4</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>26/01/2011</t>
@@ -808,7 +807,6 @@
           <t>6</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>01/02/2011</t>
@@ -908,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>05/02/2011</t>
@@ -956,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>20/02/2011</t>
@@ -1056,7 +1052,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>04/03/2011</t>
@@ -1208,7 +1203,6 @@
           <t>14</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr">
         <is>
           <t>28/01/2014</t>
@@ -1256,7 +1250,6 @@
           <t>15</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>17/05/2017</t>
@@ -1304,7 +1297,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>24/05/2017</t>
@@ -1352,7 +1344,6 @@
           <t>17</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>05/02/2020</t>
@@ -1400,7 +1391,6 @@
           <t>18</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr">
         <is>
           <t>08/02/2020</t>
@@ -1448,7 +1438,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>11/02/2020</t>
@@ -2215,4 +2204,341 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3188</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3190</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3220</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3223</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>3225</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.96%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>3228</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>3230</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>3232</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>3236</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>3242</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>3252</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>3272</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>3607</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>3609</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4027</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4402</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4406</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4410</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>